--- a/aggregated_output/KOLKATA_aggregated.xlsx
+++ b/aggregated_output/KOLKATA_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it.</t>
+Why: The README file is prominently listed in the file directory on the GitHub page, making it easy to locate. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding the README is a necessary step toward adding information to it. The README file is clearly labeled and easily accessible, making it a logical step in the process.</t>
+Why: The README file is prominently listed in the file directory on the GitHub page, making it easy to locate. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the repository's file list, and it is a common practice to look for a README file when trying to understand or add information to a project. ABI, being motivated to accomplish the task and having a comprehensive information processing style, would likely consider finding the README as a necessary step toward achieving the overall use case.</t>
+Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding the README is a necessary step toward adding information to it. The clear labeling and visibility of the README file make it an obvious subgoal in the process.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it. The README file is clearly labeled and easily accessible, making it a logical step in the process.</t>
+Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding the README file is a necessary step toward adding information to it. The file is clearly labeled, making it an obvious target for her to consider.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding the README is a necessary step toward adding information to it. The README file is clearly labeled and easily accessible, making it a logical step in the process.</t>
+Why: The README file is prominently listed in the file directory on the GitHub repository page, making it easy to locate. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-structured, and scrolling down will allow Abi to gather more details, which she prefers before taking further actions.</t>
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory, making it straightforward for Abi to understand that scrolling down could provide additional relevant information.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory at the top. This makes it easy for Abi to understand that scrolling down to gather more information is a logical next step.</t>
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory, making it straightforward for Abi to understand that scrolling down could provide additional context or instructions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is structured in a way that encourages scrolling to read more information. ABI, with a comprehensive information processing style, would naturally scroll down to gather more information. The layout and content of the page are clear and informative, making it easy for ABI to understand that scrolling down is the next logical step to find the README file.</t>
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory. Abi would likely understand that scrolling down could provide additional context or instructions related to the README file, making it a logical step in her process.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly visible in the file directory. Abi would likely understand that scrolling down could provide additional context or instructions related to the README file.</t>
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory at the top. Abi would likely understand that scrolling down could provide additional context or instructions related to the README file.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-structured, and the README file is clearly listed in the file directory at the top. This makes it easy for Abi to understand that scrolling down to read more details is a logical next step in finding the README.</t>
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory, making it straightforward for Abi to understand that scrolling down could provide additional relevant information.</t>
         </is>
       </c>
     </row>
@@ -511,36 +511,36 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: After scrolling down, Abi will see a lot of information about the project, but it might not be immediately clear how to proceed with adding information to the README. The page contains a lot of text and various sections, which could be overwhelming. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel certain that she is making progress toward her goal without more explicit guidance.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: After scrolling down, Abi will not find additional information specifically about the README file. The page contains a lot of information about the project, but it does not provide clear instructions or guidance on how to find or edit the README file. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may feel uncertain about whether she is making progress toward her goal and may not get the specific information she needs.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: After scrolling down, Abi will not find specific instructions or information directly related to editing the README file. The page contains a lot of information about the project, but it does not provide clear guidance on how to add information to the README. This might overwhelm Abi, given her low computer self-efficacy and preference for comprehensive information. She may not feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+Why: After scrolling down, Abi will not find additional information specifically about the README file. The page contains a lot of information about the project, its features, and other details, but it does not provide specific guidance on how to find or edit the README file. Given Abi's low computer self-efficacy and her need for comprehensive information, she might feel uncertain about whether she is making progress toward her goal. The lack of direct instructions or clear next steps related to the README file could leave her feeling unsure and overwhelmed.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will see a lot of information about the project, but it may not be immediately clear that she is making progress toward finding the README file. The README file is listed at the top of the page, and scrolling down does not provide additional information about how to access or edit it. Given Abi's comprehensive information processing style and low computer self-efficacy, she might feel uncertain about whether she is on the right track and may not feel confident that she has all the information she needs to proceed.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: After scrolling down, ABI will see a lot of information about the project, but it might not be immediately clear that they are making progress toward finding the README file. The README file is listed at the top of the file list, and scrolling down might not provide additional clarity or confirmation that they are on the right track. ABI might feel overwhelmed by the amount of information and unsure if they are progressing toward their goal.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After scrolling down, Abi will see a lot of information about the project, but it may not be immediately clear how to add information to the README file. The page contains various sections like features, installation, and contributing, which might overwhelm Abi. Given her low computer self-efficacy and preference for process-oriented learning, she might not feel confident that she is making progress toward her goal without explicit instructions or a clear indication of the next steps.</t>
+Why: After scrolling down, Abi will not find additional information specifically about the README file. The page contains a lot of information about the project, its features, installation, and contributing, but it does not provide specific guidance on how to find or edit the README file. Given Abi's comprehensive information processing style and low computer self-efficacy, she might feel uncertain about whether she is making progress toward her goal of finding the README file. The lack of specific instructions or confirmation could make her doubt if she is on the right track.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After scrolling down, Abi will see a lot of information about the project, but this information is not directly related to finding or editing the README file. The README file is listed at the top of the page in the file directory, and scrolling down does not provide additional guidance on how to access or edit it. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel assured that she is making progress toward her goal of adding information to the README. The page does not provide clear, step-by-step instructions or indications that scrolling down is the correct action to take.</t>
+Why: After scrolling down, Abi will see a lot of information about the project, but it might not be immediately clear how to proceed with adding information to the README. The page contains various sections like features, installation, and contributing, which might overwhelm Abi. Given her low computer self-efficacy and preference for process-oriented learning, she might not feel confident that she is making progress toward her goal without more explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -548,36 +548,36 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The README.md file is clearly listed in the file directory, and it is a common convention on GitHub for README files to contain important project information. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will likely recognize that clicking on README.md is the appropriate next step to find the information she needs to add to it.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The README.md file is clearly listed in the file directory, and it is a familiar term for most users who have some experience with GitHub or similar platforms. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would likely recognize that clicking on README.md is the next logical step to find the information she needs to add to it.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README.md file is clearly listed in the file directory at the top of the page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will likely recognize that clicking on the README.md file is the next logical step toward adding information to it. The page is straightforward and provides a clear indication of what to do next.</t>
+Why: The README.md file is clearly listed in the file directory, making it straightforward for Abi to identify it as the file she needs to access. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi will likely understand that clicking on README.md is the appropriate next step to find and add information to the README.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The README.md file is clearly listed in the file list at the top of the page. ABI, motivated to add information to the README and using a comprehensive information processing style, will recognize that clicking on README.md is the appropriate next step to access and edit the file. The page provides a clear indication of where the README.md file is located, making it straightforward for ABI to take this action.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The README.md file is clearly listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the README.md file is a necessary step toward adding information to it. The clear labeling and visibility of the README.md file make it an obvious action to take.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README.md file is clearly listed in the file directory, and it is a logical step for Abi to click on it to view or edit its contents. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi would likely understand that clicking on README.md is the next step toward adding information to it. The page is straightforward and provides a clear path to accessing the README file.</t>
+Why: The README.md file is clearly listed in the file directory at the top of the page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the README.md file is a necessary step toward adding information to it. The file is clearly labeled, making it an obvious target for her to consider, and the page layout is straightforward enough for her to understand what to do next.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README.md file is clearly listed in the file directory at the top of the page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will likely recognize that clicking on the README.md file is a necessary step toward adding information to it. The file is prominently displayed and labeled, making it clear that this is the correct action to take.</t>
+Why: The README.md file is clearly listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on README.md is the appropriate next step to access and add information to the README file. The page is straightforward and provides a clear path to the README.md file, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -585,36 +585,36 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: After clicking on README.md, Abi will see the contents of the README file. However, the page does not provide explicit instructions on how to edit the README file. Given Abi's low computer self-efficacy, she might not feel confident about what to do next. Additionally, while the README contains a lot of information about the project, it does not guide her on the specific steps to add information to it, which does not align with her comprehensive information processing style. Therefore, she may not feel she is making clear progress toward her goal.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: After clicking on README.md, Abi will land on a page with a lot of detailed information about the project. However, it might not be immediately clear how to proceed with adding information to the README. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel certain that she is making progress toward her goal without more explicit guidance on how to edit the README file. The page does not provide step-by-step instructions or a clear indication of how to proceed with editing, which could be confusing for Abi.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on README.md, Abi will land on a page that clearly displays the contents of the README file. This page provides detailed information about the project, which aligns with Abi's comprehensive information processing style. She will know that she has done the right thing and is making progress toward her goal of adding information to the README. The page is well-organized and provides all the necessary information she needs to proceed.</t>
+Why: After clicking on README.md, Abi will be taken to a page that displays the contents of the README file. This page provides detailed information about the project, which aligns with Abi's comprehensive information processing style. She will know that she did the right thing because she can see the README content, confirming that she is making progress toward her goal of adding information to it. The page is well-organized and provides all the necessary information she needs to proceed.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on README.md, ABI will be taken to a page that clearly displays the contents of the README file. This page provides detailed information about the project, confirming to ABI that they have accessed the correct file and are making progress toward their goal of adding information to the README. The comprehensive information presented aligns with ABI's information processing style, ensuring they have all the necessary details to proceed.</t>
+Why: After clicking on README.md, Abi will land on a page that displays the contents of the README file. This page provides detailed information about the project, including its features, installation instructions, and contribution guidelines. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she has found the README file and is making progress toward her goal of adding information to it. The page contains all the necessary information she needs to understand the context and content of the README file.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on README.md, Abi will see the contents of the README file. However, the page does not provide explicit instructions on how to edit or add information to the README file. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident that she is making progress toward her goal without clear, step-by-step instructions on how to proceed. The page provides a lot of information about the project but lacks specific guidance on editing the README file.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on README.md, Abi will land on a page that displays the contents of the README file. While this page provides a lot of information about the project, it does not provide specific instructions on how to edit the README file. Given Abi's comprehensive information processing style and low computer self-efficacy, she might feel uncertain about whether she is making progress toward her goal of adding information to the README. The lack of clear, step-by-step instructions or an obvious edit button could make her doubt if she is on the right track and if she has all the information she needs to proceed.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on README.md, Abi will land on a page that displays the contents of the README file. While this page provides a lot of information about the project, it does not provide clear instructions or guidance on how to edit the README file. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel assured that she is making progress toward her goal of adding information to the README. The page lacks step-by-step instructions or an edit button that would make it clear how to proceed with editing the file.</t>
+Why: After clicking on README.md, Abi will land on a page with detailed information about the project. However, the page contains a lot of information, which might be overwhelming. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident that she is making progress toward her goal of adding information to the README. The page does not provide explicit instructions on how to edit the README, which could leave Abi uncertain about the next steps.</t>
         </is>
       </c>
     </row>
@@ -623,35 +623,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward adding information to it. This aligns with her goal of completing the task effectively.</t>
+Why: Abi is motivated to accomplish her task, and finding out how to edit the README is a logical step toward adding information to it. Given her comprehensive information processing style, she would recognize that understanding how to edit the file is necessary to achieve her overall goal.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to accomplish her task of adding information to the README. To do this, she will need to find out how to edit the README file. Given her comprehensive information processing style, she will recognize that understanding how to edit the file is a necessary step toward achieving her overall goal. This step is logical and essential in the process of adding information to the README.</t>
+Why: Abi is motivated to accomplish her task of adding information to the README. To do this, she needs to find out how to edit it. Given her comprehensive information processing style, she would naturally consider finding out how to edit the README as a necessary step toward achieving her overall goal. This step is logical and aligns with her methodical approach to gathering information before taking action.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI, motivated to add information to the README, would naturally consider finding out how to edit it as a necessary step toward achieving the overall use case. Given ABI's comprehensive information processing style, they would recognize that understanding the process of editing the README is crucial for completing the task. The page provides detailed information about the project, which aligns with ABI's need to gather all relevant information before proceeding.</t>
+Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward adding information to it. Understanding how to make changes to the README file is a logical and essential part of the overall use case, and Abi would consider this a critical subgoal in the process.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward adding information to it. Abi would understand that she needs to know the process of editing the file to achieve her overall goal. This step is logical and aligns with her methodical approach to gathering information before taking action.</t>
+Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward adding information to it. The page she is on provides a lot of information about the project, but it does not explicitly mention how to edit the README. Therefore, she would likely think that figuring out how to edit it is an important step toward achieving her overall goal.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward achieving the overall use case of adding information to it. The need to understand the editing process is a logical and essential part of the task, and Abi would consider this a step toward her goal.</t>
+Why: Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding out how to edit the README is a necessary step toward achieving the overall use case of adding information to it. The page contains sections on contributing and other relevant information, which would prompt Abi to consider how to edit the README as part of the process.</t>
         </is>
       </c>
     </row>
@@ -659,36 +659,36 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 3. Attitude Towards Risk
-Why: The pencil button is a common icon for editing, but Abi's low computer self-efficacy and risk-averse nature might make her hesitant to click it without explicit instructions or confirmation that it is the correct action. The page does not provide clear guidance on what the pencil button does, which might make Abi unsure about taking this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The pencil button is a common icon for editing, but Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning might make her hesitant to click it without explicit instructions. The page does not provide clear guidance on what the pencil button does, which could make Abi uncertain about whether clicking it is the right action to take.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The pencil button, which is used to edit the README file, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident about clicking an unfamiliar icon without clear instructions. Abi might be hesitant to click the pencil button without knowing for sure that it will allow her to edit the README file.</t>
+Why: The pencil button, which is the edit button, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident in clicking an unfamiliar icon without clear instructions or confirmation that it is the correct action to take. Abi might hesitate to click the pencil button without knowing for sure that it will allow her to edit the README.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 3. Attitude Towards Risk
-Why: The pencil button, which is used to edit the README, is not explicitly labeled or explained on the page. ABI, with low computer self-efficacy and a risk-averse attitude, might not feel confident clicking an unfamiliar icon without clear instructions or confirmation of its function. ABI might hesitate to click the pencil button due to uncertainty about what it does, potentially preventing them from proceeding with the task.</t>
+Facets: 4. Computer Self-Efficacy, 3. Attitude Toward Risk
+Why: The pencil button, which is used to edit the README file, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and risk-averse nature, she might be hesitant to click on an unfamiliar icon without clear instructions or confirmation of its function. Abi might not feel confident that clicking the pencil button is the correct action to take, and she may be concerned about making a mistake. Therefore, the page is not good enough for Abi to confidently take this action.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The pencil button, which is used to edit the README file, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about clicking an unfamiliar icon without clear instructions. Abi may not immediately recognize that the pencil button is the correct action to take for editing the README file, and the lack of explicit guidance could deter her from proceeding.</t>
+Why: The pencil button, which is typically used for editing, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about clicking an unfamiliar icon without clear instructions. Abi might be hesitant to click the pencil button without knowing for sure that it will allow her to edit the README file, as she tends to avoid tinkering and prefers step-by-step guidance.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The pencil button, which is the edit button, is not explicitly labeled or explained on the page. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not immediately recognize that clicking the pencil button is the correct action to take for editing the README. Without clear instructions or labels, Abi might hesitate to click the button, fearing it could lead to an unintended action.</t>
+Why: The pencil button, which is used to edit the README, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about clicking an unfamiliar icon without clear instructions. Abi might be hesitant to click the pencil button without knowing for sure that it will allow her to edit the README, as she tends to avoid tinkering and prefers explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -697,35 +697,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README content in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The page provides a straightforward editing environment, which aligns with her motivation to complete the task and her preference for comprehensive information.</t>
+Why: After clicking the pencil button, Abi will be taken to an editing interface where she can see the README content in a text editor. This clear transition to an editable format will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The interface is straightforward and provides the necessary tools for editing, aligning with her motivation to accomplish the task and her comprehensive information processing style.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an edit page where the README file is displayed in an editable format. This clear transition to an editing interface will confirm to Abi that she has done the right thing and is making progress toward her goal of adding information to the README. The page provides all the necessary information and tools she needs to proceed with editing, aligning with her comprehensive information processing style.</t>
+Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README content in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The page provides a straightforward editing environment, which aligns with her motivation to accomplish the task and her comprehensive information processing style.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, ABI will be taken to an edit page where the README.md file is displayed in an editable format. This clear transition to an editing interface will confirm to ABI that they have done the right thing and are making progress toward their goal of adding information to the README. The page provides a straightforward and familiar text editing environment, which aligns with ABI's motivation to complete the task and their comprehensive information processing style.</t>
+Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README file in an editable format. The presence of the "Edit" and "Commit changes" buttons, along with the editable text, will clearly indicate to her that she is in the right place to make changes to the README file. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the full content of the README and has the necessary tools to make edits. The page provides a clear and straightforward interface for editing, which will help Abi feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README file in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal. The page provides a straightforward text editor, which aligns with her motivation to accomplish tasks and her comprehensive information processing style. The presence of "Commit changes" and "Cancel changes" buttons further indicates that she is in the correct place to make edits.</t>
+Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the contents of the README file in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The page provides a straightforward text editor, which aligns with her motivation to accomplish tasks and her comprehensive information processing style. She will have all the information she needs to proceed with editing the README.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README file in an editable format. This page clearly indicates that she is in an editing mode with options to "Cancel changes" or "Commit changes." Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she is making progress toward her goal of adding information to the README. The interface provides clear indications that she is in the right place to make edits, and the presence of the "Commit changes" button confirms that she can save her modifications.</t>
+Why: After clicking the pencil button, Abi will be taken to an edit page where the README.md file is displayed in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The page provides a straightforward editing environment, which aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -734,35 +734,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows the README content in an editable format, which is a familiar text-editing interface. Given Abi's motivation to complete her task and her comprehensive information processing style, she will understand that she can now edit the file directly. The interface is straightforward and does not require any additional technical knowledge, making it easy for Abi to proceed with editing the README.</t>
+Why: The page provides a clear text editor interface where Abi can see the content of the README file and make changes. This straightforward layout aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The presence of familiar text editing tools and the clear display of the README content will help Abi understand that she can proceed with editing the file.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays the README file in an editable format, with a text editor interface that is straightforward and familiar. Abi, motivated to complete her task, will recognize that she can now edit the file directly. The interface is simple and intuitive, providing all the necessary tools for editing, which aligns with Abi's comprehensive information processing style. She will know what to do at this step and feel confident in proceeding with the edit.</t>
+Why: The page clearly shows the README content in an editable format, with a straightforward text editor interface. Abi, motivated to add information to the README, will recognize that she can directly edit the text. The interface is simple and intuitive, which aligns with her comprehensive information processing style, allowing her to proceed with editing the file confidently.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and familiar text editing interface, which is straightforward for ABI to use. ABI, motivated to add information to the README, will recognize that they can directly edit the text in this interface. The layout is simple and intuitive, with the text displayed in an editable format, making it easy for ABI to understand what to do at this step. This aligns with ABI's comprehensive information processing style, as they can see the entire content of the README and make the necessary edits.</t>
+Why: The page provides a clear and straightforward interface for editing the README file. The text is displayed in an editable format, and there are "Edit" and "Commit changes" buttons that indicate the actions Abi can take. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will understand that she can directly edit the text in the provided editor. The page is well-organized and provides all the necessary tools for making edits, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and straightforward text editor interface, which makes it evident that Abi can now edit the README file. The presence of the "Edit" button, along with the editable text area, aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. The interface is intuitive and does not require any advanced technical skills, making it suitable for Abi to proceed with editing the file.</t>
+Why: The page Abi lands on after clicking the pencil button is a straightforward text editor with the contents of the README file displayed. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she can now edit the file directly. The interface is clear and intuitive, with the text ready for editing, which aligns with her goal of adding information to the README. The presence of "Edit" and "Commit changes" buttons further guides her on what to do next, making the page good enough for her to take this action.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows the README file in an editable format, with options to "Cancel changes" or "Commit changes" prominently displayed. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will understand that she can now edit the file directly. The interface is straightforward and provides a clear indication that she is in the right place to make the necessary edits. The presence of the editing toolbar and the editable text area makes it evident that she can proceed with editing the file.</t>
+Why: The page provides a clear and straightforward text editor interface for editing the README.md file. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will understand that she can now edit the file directly. The interface is intuitive and resembles a typical text editor, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -771,35 +771,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, Abi will see her changes reflected in the editable text area. This immediate feedback will confirm to her that she is making progress toward her goal of adding information to the README. The interface is straightforward and shows the changes she made, which aligns with her motivation to complete the task and her preference for comprehensive information.</t>
+Why: After editing the file, Abi will see her changes reflected in the text editor. This immediate feedback will confirm to her that she is making progress toward her goal of adding information to the README. The interface is straightforward and shows the changes clearly, which aligns with her motivation to accomplish the task and her comprehensive information processing style. The presence of familiar text editing tools and the clear display of the README content will help Abi understand that she can proceed with editing the file.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, Abi will see her changes reflected in the text editor. This immediate feedback will confirm that she has done the right thing and is making progress toward her goal of adding information to the README. The interface remains clear and straightforward, providing all the necessary information and tools she needs to continue editing. This aligns with her comprehensive information processing style and motivation to complete the task.</t>
+Why: After editing the file, Abi will see her changes reflected in the text, confirming that she is making progress toward her goal. The interface remains clear and straightforward, allowing her to see the modifications she has made. This visual confirmation aligns with her motivation to complete the task and her comprehensive information processing style, ensuring she knows she did the right thing and is on the right track.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, ABI will see their changes reflected in the text, confirming that they have successfully made edits to the README. The interface clearly shows the edited content, providing immediate feedback that they are making progress toward their goal. This aligns with ABI's motivation to complete the task and their comprehensive information processing style, as they can see the results of their actions directly in the editing interface.</t>
+Why: After editing the file, Abi will see her changes reflected in the editable text area. The presence of the "Commit changes" button will indicate that she can save her edits, confirming that she is making progress toward her goal. The interface is clear and straightforward, showing the changes she made and providing an obvious next step to finalize the edits. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the immediate results of her actions and knows how to proceed.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, Abi will see her changes reflected in the text editor. The presence of the "Commit changes" button indicates that she can save her edits, confirming that she is making progress toward her goal. The interface is clear and straightforward, providing visual feedback that her edits have been made. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the direct result of her actions and understand that she is on the right track.</t>
+Why: After editing the file, Abi will see her changes reflected in the text editor. This immediate feedback will confirm to her that she did the right thing and is making progress toward her goal of adding information to the README. The presence of the "Commit changes" button further indicates the next step she needs to take to save her changes. The interface is clear and provides all the necessary information for her to proceed, aligning with her motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, Abi will see her changes reflected in the editable text area. The interface provides clear options to "Cancel changes" or "Commit changes," which indicates that she is making progress toward her goal. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she has successfully edited the file and is ready to proceed to the next step of committing the changes. The interface is straightforward and confirms that her actions are being recorded, providing the necessary feedback to assure her that she is on the right track.</t>
+Why: After editing the file, Abi will see her changes reflected in the text editor. This immediate feedback will confirm to her that she did the right thing and is making progress toward her goal of adding information to the README. The interface is clear and shows the changes directly, which aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. She will have all the information she needs to proceed with her edits.</t>
         </is>
       </c>
     </row>
@@ -807,36 +807,36 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 3. Attitude Towards Risk
-Why: The "preview change" button is not explicitly visible on the page, and there is no clear indication or instruction that Abi should click it to preview her changes. Given Abi's low computer self-efficacy and risk-averse nature, she might not feel confident about what to do next without clear guidance. The lack of explicit instructions or a visible button might make her hesitant to proceed.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Preview changes" button is not explicitly visible in the provided image. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not know that she needs to click "Preview changes" to see her edits. The page does not provide clear guidance or instructions on this step, which could make Abi uncertain about what to do next.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Preview changes" button is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident about clicking an unfamiliar button without clear instructions. Abi might be hesitant to click the "Preview changes" button without knowing for sure what it will do, and there is no immediate indication on the page that this is the next step she should take.</t>
+Why: The "Preview changes" button is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident in clicking an unfamiliar button without clear instructions or confirmation that it is the correct action to take. Abi might hesitate to click the "Preview changes" button without knowing for sure that it will allow her to see the changes she has made.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 3. Attitude Towards Risk
-Why: The "Preview changes" button is not explicitly labeled or explained on the page. ABI, with low computer self-efficacy and a risk-averse attitude, might not feel confident clicking an unfamiliar button without clear instructions or confirmation of its function. ABI might hesitate to click the "Preview changes" button due to uncertainty about what it does, potentially preventing them from proceeding with the task.</t>
+Facets: 4. Computer Self-Efficacy, 3. Attitude Toward Risk
+Why: The "Preview changes" button is not clearly visible or labeled in the provided image. Given Abi's low computer self-efficacy and risk-averse nature, she might be hesitant to click on an unfamiliar button without clear instructions or confirmation of its function. Abi might not feel confident that clicking the "Preview changes" button is the correct action to take, and she may be concerned about making a mistake. Therefore, the page is not good enough for Abi to confidently take this action.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Preview changes" button is not prominently visible on the page, and there are no explicit instructions indicating that Abi should click it to see her changes. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about clicking an unfamiliar button without clear guidance. The page does not provide enough visual cues or instructions to make it obvious that "Preview changes" is the next step, which could deter Abi from taking this action.</t>
+Why: The "Preview changes" button is not prominently visible on the page, and there are no explicit instructions indicating that this button should be clicked to preview the changes. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about what to do next without clear guidance. The page does not provide enough visual cues or instructions to make it obvious that clicking "Preview changes" is the next step, which could make Abi hesitant to proceed.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Preview changes" button is not prominently displayed or labeled in the provided image. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not immediately recognize that she needs to click "Preview changes" to see her edits before committing them. The interface does not provide clear guidance or instructions on this step, which could cause hesitation or confusion for Abi.</t>
+Why: The "Preview changes" button is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might not feel confident about clicking an unfamiliar button without clear instructions. Abi might be hesitant to click the "Preview changes" button without knowing for sure what it will do, as she tends to avoid tinkering and prefers explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -845,35 +845,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "preview change," Abi will see a rendered view of the README file with her changes. This visual confirmation will help her understand that she did the right thing and is making progress toward her goal. The preview provides a clear and immediate way to verify the changes, which aligns with her motivation to complete the task and her preference for comprehensive information.</t>
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This visual confirmation will help her understand that she did the right thing and is making progress toward her goal. The preview provides a clear and immediate way to verify the changes, aligning with her motivation to accomplish the task and her comprehensive information processing style. The interface is straightforward and shows the changes clearly, which will help Abi feel confident that she is on the right track.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This visual confirmation will let her know that she has done the right thing and is making progress toward her goal. The page clearly shows the changes she made, providing all the information she needs to ensure her edits are correct. This aligns with her comprehensive information processing style and motivation to complete the task.</t>
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits clearly displayed. This visual confirmation will let her know that she did the right thing and is making progress toward her goal. The page provides a clear and accurate preview of the changes, which aligns with her motivation to complete the task and her comprehensive information processing style, ensuring she has all the information she needs to proceed.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," ABI will see a rendered view of the README file with their edits. This clear visual confirmation will indicate to ABI that they have done the right thing and are making progress toward their goal. The preview provides a comprehensive view of the changes, aligning with ABI's information processing style and ensuring they have all the information they need to proceed. This feedback will reinforce ABI's motivation to complete the task.</t>
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This visual confirmation will help her understand that she did the right thing and is making progress toward her goal. The preview provides a clear and accurate representation of how the README will look after the changes are committed, which aligns with her comprehensive information processing style. Seeing the changes in context will reassure Abi that she is on the right track and has all the information she needs to proceed.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This visual confirmation will help her understand that she did the right thing and is making progress toward her goal. The preview provides a clear and immediate way to verify the changes, aligning with her motivation to accomplish tasks and her comprehensive information processing style. The presence of the "Commit changes" button further indicates that she is on the right track to finalizing her edits.</t>
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits included. This visual confirmation will indicate to her that she did the right thing and is making progress toward her goal of adding information to the README. The page clearly shows the changes she made, providing the feedback she needs to feel confident that she is on the right track. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she can see the results of her actions directly.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits included. This provides clear feedback that her changes have been made correctly. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that she is making progress toward her goal. The interface clearly shows the updated content, confirming that her edits are correct and ready to be committed. This visual confirmation helps Abi understand that she is on the right track and has all the information she needs to proceed.</t>
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This clear visual feedback will confirm to her that she did the right thing and is making progress toward her goal of adding information to the README. The preview provides a clear and accurate representation of the final document, which aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. She will have all the information she needs to verify her changes before committing them.</t>
         </is>
       </c>
     </row>
